--- a/medicine/Psychotrope/Mijiu/Mijiu.xlsx
+++ b/medicine/Psychotrope/Mijiu/Mijiu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mijiu (chinois : 米酒 ; pinyin : mǐjiǔ), parfois romanisé en michiu, est un type de bière traditionnelle chinoise brassée à partir de riz gluant. C'est une forme de huangjiu, un autre alcool de riz chinois.
 Il est clair et doux comme le soju coréen ou le saké japonais, avec un degré d'alcool compris entre 12 % et 20 %.
